--- a/ha-asset/01_design/93_S3設計書.xlsx
+++ b/ha-asset/01_design/93_S3設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFB138B-CB58-47A0-997C-A99A22BDF3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174E5D46-E71F-49E9-B5EA-477501422FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1755" windowWidth="19440" windowHeight="12855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -81,31 +81,13 @@
     <t>キーの文字列表現</t>
   </si>
   <si>
-    <t>healthinfo-file-regist/</t>
-  </si>
-  <si>
-    <t>${seqUserId}</t>
-  </si>
-  <si>
     <t>YYYYMMDDHHMMSS.csv</t>
   </si>
   <si>
     <t>健康情報一括登録CSVの配置キー</t>
   </si>
   <si>
-    <t>healthinfo-file-regist/${seqUserId}/YYYYMMDDHHMMSS.csv</t>
-  </si>
-  <si>
-    <t>healthinfo-file-reference/</t>
-  </si>
-  <si>
     <t>健康情報照会CSVファイル</t>
-  </si>
-  <si>
-    <t>healthinfo-file-reference/${seqUserId}/YYYYMMDDHHMMSS.csv</t>
-  </si>
-  <si>
-    <t>news/</t>
   </si>
   <si>
     <t>news.json</t>
@@ -114,19 +96,10 @@
     <t>お知らせ一覧JSONの配置キー</t>
   </si>
   <si>
-    <t>news/news.json</t>
-  </si>
-  <si>
-    <t>mail-template/</t>
-  </si>
-  <si>
     <t>account-recovery-template.txt</t>
   </si>
   <si>
     <t>健康管理アプリパスワード再設定メールのテンプレートキー</t>
-  </si>
-  <si>
-    <t>mail-template/account-recovery-template.txt</t>
   </si>
   <si>
     <t>health-check-template.txt</t>
@@ -135,16 +108,10 @@
     <t>健康管理APIサーバヘルスチェック失敗メールテンプレートキー</t>
   </si>
   <si>
-    <t>mail-template/health-check-template.txt</t>
-  </si>
-  <si>
     <t>healthinfo-regist-template.txt</t>
   </si>
   <si>
     <t>健康情報登録成功時に送信するメールテンプレートキー</t>
-  </si>
-  <si>
-    <t>mail-template/healthinfo-regist-template.txt</t>
   </si>
   <si>
     <t>${yyyymm}.csv</t>
@@ -153,14 +120,31 @@
     <t>Athenaで参照する健康情報CSVファイルキー</t>
   </si>
   <si>
-    <t>monthly/healthinfo/${yyyymm}.csv</t>
-  </si>
-  <si>
-    <t>monthly/</t>
+    <t>healthinfo-file-regist</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>healthinfo/</t>
+    <t>healthinfo-file-reference</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mail-template</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>monthly</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>healthinfo</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>${seqUserId}</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -415,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -458,9 +442,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -472,9 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +468,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -507,18 +489,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,9 +723,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
@@ -1550,6 +1529,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1559,66 +1598,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,14 +1612,14 @@
   </sheetPr>
   <dimension ref="A1:BQ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="69" width="3.7109375" style="40" customWidth="1"/>
-    <col min="70" max="16384" width="14.42578125" style="40"/>
+    <col min="1" max="69" width="3.7109375" style="31" customWidth="1"/>
+    <col min="70" max="16384" width="14.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -2010,34 +1989,34 @@
       <c r="C6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="43"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
@@ -2084,38 +2063,38 @@
       <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="39" t="str">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41" t="str">
         <f t="shared" ref="H7:H8" si="0">"healthinfo-app-"&amp;C7</f>
         <v>healthinfo-app-local</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="44"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="40"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -2162,38 +2141,38 @@
       <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="39" t="str">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>healthinfo-app-ec2</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="44"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="40"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
@@ -2525,71 +2504,71 @@
     </row>
     <row r="13" spans="1:69" ht="18.75">
       <c r="A13" s="12"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40"/>
       <c r="V13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
-      <c r="AK13" s="43"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="44"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="40"/>
       <c r="AN13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
-      <c r="AR13" s="43"/>
-      <c r="AS13" s="43"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="43"/>
-      <c r="AV13" s="43"/>
-      <c r="AW13" s="43"/>
-      <c r="AX13" s="43"/>
-      <c r="AY13" s="43"/>
-      <c r="AZ13" s="43"/>
-      <c r="BA13" s="43"/>
-      <c r="BB13" s="43"/>
-      <c r="BC13" s="43"/>
-      <c r="BD13" s="43"/>
-      <c r="BE13" s="43"/>
-      <c r="BF13" s="43"/>
-      <c r="BG13" s="43"/>
-      <c r="BH13" s="44"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="40"/>
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
       <c r="BK13" s="12"/>
@@ -2603,7 +2582,7 @@
     <row r="14" spans="1:69">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -2676,66 +2655,66 @@
     <row r="15" spans="1:69">
       <c r="A15" s="12"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="24"/>
-      <c r="BC15" s="24"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="25"/>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
       <c r="BK15" s="12"/>
@@ -2750,69 +2729,70 @@
       <c r="A16" s="12"/>
       <c r="B16" s="19"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="24"/>
-      <c r="AX16" s="24"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="24"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="24"/>
-      <c r="BG16" s="24"/>
-      <c r="BH16" s="25"/>
+      <c r="D16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="28" t="str">
+        <f>B14&amp;"/"&amp;C15&amp;"/"&amp;D16</f>
+        <v>healthinfo-file-regist/${seqUserId}/YYYYMMDDHHMMSS.csv</v>
+      </c>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="24"/>
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
       <c r="BK16" s="12"/>
@@ -2826,7 +2806,7 @@
     <row r="17" spans="1:69">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2899,66 +2879,66 @@
     <row r="18" spans="1:69">
       <c r="A18" s="12"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
-      <c r="AP18" s="22"/>
-      <c r="AQ18" s="22"/>
-      <c r="AR18" s="22"/>
-      <c r="AS18" s="23"/>
-      <c r="AT18" s="23"/>
-      <c r="AU18" s="23"/>
-      <c r="AV18" s="23"/>
-      <c r="AW18" s="23"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="24"/>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="25"/>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="17"/>
+      <c r="BH18" s="18"/>
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
@@ -2973,69 +2953,70 @@
       <c r="A19" s="12"/>
       <c r="B19" s="19"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
-      <c r="AQ19" s="22"/>
-      <c r="AR19" s="22"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="25"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="30" t="str">
+        <f>B17&amp;"/"&amp;C18&amp;"/"&amp;D19</f>
+        <v>healthinfo-file-reference/${seqUserId}/YYYYMMDDHHMMSS.csv</v>
+      </c>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="24"/>
       <c r="BI19" s="12"/>
       <c r="BJ19" s="12"/>
       <c r="BK19" s="12"/>
@@ -3049,7 +3030,7 @@
     <row r="20" spans="1:69">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -3121,71 +3102,72 @@
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="12"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO21" s="22"/>
-      <c r="AP21" s="22"/>
-      <c r="AQ21" s="22"/>
-      <c r="AR21" s="22"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="23"/>
-      <c r="AV21" s="23"/>
-      <c r="AW21" s="23"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="30" t="str">
+        <f>B20&amp;"/"&amp;C21</f>
+        <v>news/news.json</v>
+      </c>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="23"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="24"/>
       <c r="BI21" s="12"/>
       <c r="BJ21" s="12"/>
       <c r="BK21" s="12"/>
@@ -3199,7 +3181,7 @@
     <row r="22" spans="1:69">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -3272,70 +3254,71 @@
     <row r="23" spans="1:69">
       <c r="A23" s="12"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO23" s="22"/>
-      <c r="AP23" s="22"/>
-      <c r="AQ23" s="22"/>
-      <c r="AR23" s="22"/>
-      <c r="AS23" s="23"/>
-      <c r="AT23" s="23"/>
-      <c r="AU23" s="23"/>
-      <c r="AV23" s="23"/>
-      <c r="AW23" s="23"/>
-      <c r="AX23" s="24"/>
-      <c r="AY23" s="24"/>
-      <c r="AZ23" s="24"/>
-      <c r="BA23" s="24"/>
-      <c r="BB23" s="24"/>
-      <c r="BC23" s="24"/>
-      <c r="BD23" s="24"/>
-      <c r="BE23" s="24"/>
-      <c r="BF23" s="24"/>
-      <c r="BG23" s="24"/>
-      <c r="BH23" s="25"/>
+      <c r="C23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="30" t="str">
+        <f>B22&amp;"/"&amp;C23</f>
+        <v>mail-template/account-recovery-template.txt</v>
+      </c>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="23"/>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="23"/>
+      <c r="BH23" s="24"/>
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
       <c r="BK23" s="12"/>
@@ -3349,70 +3332,71 @@
     <row r="24" spans="1:69">
       <c r="A24" s="12"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
-      <c r="AQ24" s="22"/>
-      <c r="AR24" s="22"/>
-      <c r="AS24" s="23"/>
-      <c r="AT24" s="23"/>
-      <c r="AU24" s="23"/>
-      <c r="AV24" s="23"/>
-      <c r="AW24" s="23"/>
-      <c r="AX24" s="24"/>
-      <c r="AY24" s="24"/>
-      <c r="AZ24" s="24"/>
-      <c r="BA24" s="24"/>
-      <c r="BB24" s="24"/>
-      <c r="BC24" s="24"/>
-      <c r="BD24" s="24"/>
-      <c r="BE24" s="24"/>
-      <c r="BF24" s="24"/>
-      <c r="BG24" s="24"/>
-      <c r="BH24" s="25"/>
+      <c r="C24" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="30" t="str">
+        <f>B22&amp;"/"&amp;C24</f>
+        <v>mail-template/health-check-template.txt</v>
+      </c>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="23"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="23"/>
+      <c r="BC24" s="23"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="24"/>
       <c r="BI24" s="12"/>
       <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
@@ -3426,70 +3410,71 @@
     <row r="25" spans="1:69">
       <c r="A25" s="12"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO25" s="22"/>
-      <c r="AP25" s="22"/>
-      <c r="AQ25" s="22"/>
-      <c r="AR25" s="22"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
-      <c r="BA25" s="24"/>
-      <c r="BB25" s="24"/>
-      <c r="BC25" s="24"/>
-      <c r="BD25" s="24"/>
-      <c r="BE25" s="24"/>
-      <c r="BF25" s="24"/>
-      <c r="BG25" s="24"/>
-      <c r="BH25" s="25"/>
+      <c r="C25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="30" t="str">
+        <f>B22&amp;"/"&amp;C25</f>
+        <v>mail-template/healthinfo-regist-template.txt</v>
+      </c>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="23"/>
+      <c r="BC25" s="23"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="24"/>
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
@@ -3503,7 +3488,7 @@
     <row r="26" spans="1:69">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -3577,7 +3562,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="19"/>
       <c r="C27" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3648,71 +3633,72 @@
     </row>
     <row r="28" spans="1:69">
       <c r="A28" s="12"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="24"/>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="24"/>
-      <c r="BB28" s="24"/>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="24"/>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="30" t="str">
+        <f>B26&amp;"/"&amp;C27&amp;"/"&amp;D28</f>
+        <v>monthly/healthinfo/${yyyymm}.csv</v>
+      </c>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="23"/>
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="23"/>
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="23"/>
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="24"/>
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>

--- a/ha-asset/01_design/93_S3設計書.xlsx
+++ b/ha-asset/01_design/93_S3設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174E5D46-E71F-49E9-B5EA-477501422FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E2EAF6-365D-4BA8-8B22-A95BA32D9089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="930" windowWidth="25425" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2.1.S3詳細設計'!$A$1:$BQ$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2.1.S3詳細設計'!$A$1:$BQ$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>ec2</t>
-  </si>
-  <si>
-    <t>2.2.1.キー情報</t>
   </si>
   <si>
     <t>各環境毎のバケットを以下の構成で作成する</t>
@@ -145,6 +142,26 @@
   </si>
   <si>
     <t>${seqUserId}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>slack</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>slack_connection_data.json</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.2.1.キー情報</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.2.1.キー情報
+　slack/slack_connection_data.json 追加</t>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -399,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -473,17 +490,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,6 +513,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +755,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
@@ -827,646 +861,653 @@
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="36">
+      <c r="B4" s="43">
         <v>44150</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="37" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="32" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="34"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="45"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="16.5">
+    <row r="5" spans="1:27" ht="32.25" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="34"/>
+      <c r="B5" s="48">
+        <v>44254</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="47">
+        <f>F4+0.01</f>
+        <v>1.01</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="34"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="34"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="45"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="34"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="45"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="34"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="45"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="34"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="45"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="34"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="34"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="45"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="34"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="45"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="34"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="45"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="34"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="45"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="34"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="45"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="34"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="45"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="34"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="45"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="34"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="45"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="3"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="34"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="45"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="34"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="45"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="34"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="45"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="3"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="34"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="45"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="34"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="45"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="34"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="45"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27" ht="16.5">
@@ -1529,12 +1570,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1544,60 +1633,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1610,10 +1651,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ38"/>
+  <dimension ref="A1:BQ40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1986,37 +2027,37 @@
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="38" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="43"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="41"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
@@ -2063,38 +2104,38 @@
       <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41" t="str">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39" t="str">
         <f t="shared" ref="H7:H8" si="0">"healthinfo-app-"&amp;C7</f>
         <v>healthinfo-app-local</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="40"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="38"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -2141,38 +2182,38 @@
       <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41" t="str">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>healthinfo-app-ec2</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="40"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="38"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
@@ -2287,7 +2328,7 @@
     </row>
     <row r="10" spans="1:69">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2432,7 +2473,7 @@
     <row r="12" spans="1:69">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2504,71 +2545,71 @@
     </row>
     <row r="13" spans="1:69" ht="18.75">
       <c r="A13" s="12"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="38" t="s">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="39"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="39"/>
-      <c r="AY13" s="39"/>
-      <c r="AZ13" s="39"/>
-      <c r="BA13" s="39"/>
-      <c r="BB13" s="39"/>
-      <c r="BC13" s="39"/>
-      <c r="BD13" s="39"/>
-      <c r="BE13" s="39"/>
-      <c r="BF13" s="39"/>
-      <c r="BG13" s="39"/>
-      <c r="BH13" s="40"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="37"/>
+      <c r="AT13" s="37"/>
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="37"/>
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="37"/>
+      <c r="BG13" s="37"/>
+      <c r="BH13" s="38"/>
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
       <c r="BK13" s="12"/>
@@ -2656,7 +2697,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="19"/>
       <c r="C15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -2677,44 +2718,44 @@
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
       <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="17"/>
+      <c r="BD15" s="17"/>
+      <c r="BE15" s="17"/>
+      <c r="BF15" s="17"/>
+      <c r="BG15" s="17"/>
+      <c r="BH15" s="18"/>
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
       <c r="BK15" s="12"/>
@@ -2730,7 +2771,7 @@
       <c r="B16" s="19"/>
       <c r="C16" s="26"/>
       <c r="D16" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -2769,9 +2810,9 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
       <c r="AM16" s="25"/>
-      <c r="AN16" s="28" t="str">
+      <c r="AN16" s="30" t="str">
         <f>B14&amp;"/"&amp;C15&amp;"/"&amp;D16</f>
-        <v>healthinfo-file-regist/${seqUserId}/YYYYMMDDHHMMSS.csv</v>
+        <v>healthinfo-file-reference/${seqUserId}/YYYYMMDDHHMMSS.csv</v>
       </c>
       <c r="AO16" s="21"/>
       <c r="AP16" s="21"/>
@@ -2806,7 +2847,7 @@
     <row r="17" spans="1:69">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2880,7 +2921,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="19"/>
       <c r="C18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -2901,44 +2942,44 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
       <c r="AN18" s="14"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="18"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
@@ -2953,8 +2994,8 @@
       <c r="A19" s="12"/>
       <c r="B19" s="19"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="28" t="s">
-        <v>18</v>
+      <c r="D19" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -2973,8 +3014,8 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="28" t="s">
-        <v>20</v>
+      <c r="V19" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -2993,9 +3034,9 @@
       <c r="AK19" s="22"/>
       <c r="AL19" s="22"/>
       <c r="AM19" s="25"/>
-      <c r="AN19" s="30" t="str">
+      <c r="AN19" s="32" t="str">
         <f>B17&amp;"/"&amp;C18&amp;"/"&amp;D19</f>
-        <v>healthinfo-file-reference/${seqUserId}/YYYYMMDDHHMMSS.csv</v>
+        <v>healthinfo-file-regist/${seqUserId}/YYYYMMDDHHMMSS.csv</v>
       </c>
       <c r="AO19" s="21"/>
       <c r="AP19" s="21"/>
@@ -3102,9 +3143,9 @@
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="12"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28" t="s">
-        <v>21</v>
+      <c r="B21" s="19"/>
+      <c r="C21" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -3124,8 +3165,8 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
-      <c r="V21" s="28" t="s">
-        <v>22</v>
+      <c r="V21" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
@@ -3144,9 +3185,9 @@
       <c r="AK21" s="22"/>
       <c r="AL21" s="22"/>
       <c r="AM21" s="27"/>
-      <c r="AN21" s="30" t="str">
+      <c r="AN21" s="32" t="str">
         <f>B20&amp;"/"&amp;C21</f>
-        <v>news/news.json</v>
+        <v>mail-template/account-recovery-template.txt</v>
       </c>
       <c r="AO21" s="21"/>
       <c r="AP21" s="21"/>
@@ -3180,67 +3221,72 @@
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="16"/>
-      <c r="AQ22" s="16"/>
-      <c r="AR22" s="16"/>
-      <c r="AS22" s="16"/>
-      <c r="AT22" s="16"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="16"/>
-      <c r="AW22" s="16"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="17"/>
-      <c r="AZ22" s="17"/>
-      <c r="BA22" s="17"/>
-      <c r="BB22" s="17"/>
-      <c r="BC22" s="17"/>
-      <c r="BD22" s="17"/>
-      <c r="BE22" s="17"/>
-      <c r="BF22" s="17"/>
-      <c r="BG22" s="17"/>
-      <c r="BH22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="32" t="str">
+        <f>B20&amp;"/"&amp;C22</f>
+        <v>mail-template/health-check-template.txt</v>
+      </c>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="24"/>
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
@@ -3254,8 +3300,8 @@
     <row r="23" spans="1:69">
       <c r="A23" s="12"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="28" t="s">
-        <v>23</v>
+      <c r="C23" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -3275,8 +3321,8 @@
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
-      <c r="V23" s="28" t="s">
-        <v>24</v>
+      <c r="V23" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -3295,9 +3341,9 @@
       <c r="AK23" s="22"/>
       <c r="AL23" s="22"/>
       <c r="AM23" s="27"/>
-      <c r="AN23" s="30" t="str">
-        <f>B22&amp;"/"&amp;C23</f>
-        <v>mail-template/account-recovery-template.txt</v>
+      <c r="AN23" s="32" t="str">
+        <f>B20&amp;"/"&amp;C23</f>
+        <v>mail-template/healthinfo-regist-template.txt</v>
       </c>
       <c r="AO23" s="21"/>
       <c r="AP23" s="21"/>
@@ -3331,72 +3377,67 @@
     </row>
     <row r="24" spans="1:69">
       <c r="A24" s="12"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="30" t="str">
-        <f>B22&amp;"/"&amp;C24</f>
-        <v>mail-template/health-check-template.txt</v>
-      </c>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="22"/>
-      <c r="AU24" s="22"/>
-      <c r="AV24" s="22"/>
-      <c r="AW24" s="22"/>
-      <c r="AX24" s="23"/>
-      <c r="AY24" s="23"/>
-      <c r="AZ24" s="23"/>
-      <c r="BA24" s="23"/>
-      <c r="BB24" s="23"/>
-      <c r="BC24" s="23"/>
-      <c r="BD24" s="23"/>
-      <c r="BE24" s="23"/>
-      <c r="BF24" s="23"/>
-      <c r="BG24" s="23"/>
-      <c r="BH24" s="24"/>
+      <c r="B24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="18"/>
       <c r="BI24" s="12"/>
       <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
@@ -3410,71 +3451,66 @@
     <row r="25" spans="1:69">
       <c r="A25" s="12"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="30" t="str">
-        <f>B22&amp;"/"&amp;C25</f>
-        <v>mail-template/healthinfo-regist-template.txt</v>
-      </c>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="22"/>
-      <c r="AT25" s="22"/>
-      <c r="AU25" s="22"/>
-      <c r="AV25" s="22"/>
-      <c r="AW25" s="22"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="23"/>
-      <c r="BB25" s="23"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="23"/>
-      <c r="BE25" s="23"/>
-      <c r="BF25" s="23"/>
-      <c r="BG25" s="23"/>
-      <c r="BH25" s="24"/>
+      <c r="C25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="18"/>
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
@@ -3487,67 +3523,72 @@
     </row>
     <row r="26" spans="1:69">
       <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="16"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="16"/>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="16"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16"/>
-      <c r="AW26" s="16"/>
-      <c r="AX26" s="16"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="17"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="17"/>
-      <c r="BH26" s="18"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="30" t="str">
+        <f>B24&amp;"/"&amp;C25&amp;"/"&amp;D26</f>
+        <v>monthly/healthinfo/${yyyymm}.csv</v>
+      </c>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="24"/>
       <c r="BI26" s="12"/>
       <c r="BJ26" s="12"/>
       <c r="BK26" s="12"/>
@@ -3560,10 +3601,10 @@
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="12"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -3582,9 +3623,9 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
+      <c r="V27" s="15"/>
       <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
+      <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="16"/>
@@ -3599,10 +3640,10 @@
       <c r="AJ27" s="16"/>
       <c r="AK27" s="16"/>
       <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="15"/>
       <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
+      <c r="AP27" s="16"/>
       <c r="AQ27" s="16"/>
       <c r="AR27" s="16"/>
       <c r="AS27" s="16"/>
@@ -3611,7 +3652,7 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="16"/>
       <c r="AX27" s="16"/>
-      <c r="AY27" s="16"/>
+      <c r="AY27" s="17"/>
       <c r="AZ27" s="17"/>
       <c r="BA27" s="17"/>
       <c r="BB27" s="17"/>
@@ -3633,11 +3674,11 @@
     </row>
     <row r="28" spans="1:69">
       <c r="A28" s="12"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -3654,9 +3695,9 @@
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
-      <c r="U28" s="27"/>
+      <c r="U28" s="21"/>
       <c r="V28" s="28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
@@ -3676,8 +3717,8 @@
       <c r="AL28" s="22"/>
       <c r="AM28" s="27"/>
       <c r="AN28" s="30" t="str">
-        <f>B26&amp;"/"&amp;C27&amp;"/"&amp;D28</f>
-        <v>monthly/healthinfo/${yyyymm}.csv</v>
+        <f>B27&amp;"/"&amp;C28</f>
+        <v>news/news.json</v>
       </c>
       <c r="AO28" s="21"/>
       <c r="AP28" s="21"/>
@@ -3711,65 +3752,67 @@
     </row>
     <row r="29" spans="1:69">
       <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="12"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="12"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="12"/>
-      <c r="BH29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="16"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="16"/>
+      <c r="AX29" s="16"/>
+      <c r="AY29" s="17"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="17"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="17"/>
+      <c r="BD29" s="17"/>
+      <c r="BE29" s="17"/>
+      <c r="BF29" s="17"/>
+      <c r="BG29" s="17"/>
+      <c r="BH29" s="18"/>
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
@@ -3782,65 +3825,72 @@
     </row>
     <row r="30" spans="1:69">
       <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="12"/>
-      <c r="AQ30" s="12"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="12"/>
-      <c r="AT30" s="12"/>
-      <c r="AU30" s="12"/>
-      <c r="AV30" s="12"/>
-      <c r="AW30" s="12"/>
-      <c r="AX30" s="12"/>
-      <c r="AY30" s="12"/>
-      <c r="AZ30" s="12"/>
-      <c r="BA30" s="12"/>
-      <c r="BB30" s="12"/>
-      <c r="BC30" s="12"/>
-      <c r="BD30" s="12"/>
-      <c r="BE30" s="12"/>
-      <c r="BF30" s="12"/>
-      <c r="BG30" s="12"/>
-      <c r="BH30" s="12"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="32" t="str">
+        <f>B29&amp;"/"&amp;C30</f>
+        <v>slack/slack_connection_data.json</v>
+      </c>
+      <c r="AO30" s="21"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="21"/>
+      <c r="AR30" s="21"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="23"/>
+      <c r="AZ30" s="23"/>
+      <c r="BA30" s="23"/>
+      <c r="BB30" s="23"/>
+      <c r="BC30" s="23"/>
+      <c r="BD30" s="23"/>
+      <c r="BE30" s="23"/>
+      <c r="BF30" s="23"/>
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="24"/>
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
       <c r="BK30" s="12"/>
@@ -4419,6 +4469,148 @@
       <c r="BP38" s="12"/>
       <c r="BQ38" s="12"/>
     </row>
+    <row r="39" spans="1:69">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="12"/>
+    </row>
+    <row r="40" spans="1:69">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="12"/>
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="12"/>
+      <c r="BO40" s="12"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AN13:BH13"/>

--- a/ha-asset/01_design/93_S3設計書.xlsx
+++ b/ha-asset/01_design/93_S3設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030CF33B-F916-4071-BF7E-DC65FC9878F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88717621-CBD8-4AFC-A4FB-00A108B4006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="750" windowWidth="21930" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="840" windowWidth="24120" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>更新日時</t>
   </si>
@@ -194,6 +194,10 @@
     <rPh sb="8" eb="9">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.2.1.キー情報</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -448,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -525,6 +529,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +540,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -547,14 +559,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -787,9 +794,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
@@ -859,695 +864,695 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="39"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="40">
+      <c r="B4" s="44">
         <v>44150</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="41" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="36"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="32.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="42">
+      <c r="B5" s="37">
         <v>44254</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="33">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="34">
         <f>F4+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="36"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="42">
+      <c r="B6" s="37">
         <v>44353</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34">
         <f>F5+0.01</f>
         <v>1.02</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="33" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="45"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="35"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="36"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="36"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="36"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="36"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="2"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="36"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="35"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="36"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="2"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="36"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="2"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="36"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="35"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="36"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="36"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="36"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="36"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="2"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="36"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="2"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="36"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="2"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="36"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="2"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="36"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="2"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="36"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="2"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="35"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="36"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="2"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="35"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="36"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="16.5">
@@ -1610,12 +1615,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1625,60 +1678,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,9 +1698,7 @@
   </sheetPr>
   <dimension ref="A1:BQ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
@@ -2067,37 +2070,37 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="49"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
@@ -2144,38 +2147,38 @@
       <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46" t="str">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="47" t="str">
         <f t="shared" ref="H7:H8" si="0">"healthinfo-app-"&amp;C7</f>
         <v>healthinfo-app-local</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="45"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="39"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -2222,38 +2225,38 @@
       <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46" t="str">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="47" t="str">
         <f t="shared" si="0"/>
         <v>healthinfo-app-ec2</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="45"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="39"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -2367,9 +2370,8 @@
       <c r="BQ9" s="11"/>
     </row>
     <row r="10" spans="1:69">
-      <c r="A10" s="1" t="str">
-        <f ca="1">RIGHT(CELL("filename",A10),LEN(CELL("filename",A10))-FIND("]",CELL("filename",A10)))</f>
-        <v>2.1.S3詳細設計</v>
+      <c r="A10" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2586,71 +2588,71 @@
     </row>
     <row r="13" spans="1:69" ht="18.75">
       <c r="A13" s="11"/>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="43" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="43" t="s">
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="45"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="38"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="39"/>
       <c r="BI13" s="11"/>
       <c r="BJ13" s="11"/>
       <c r="BK13" s="11"/>
@@ -2983,23 +2985,23 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
       <c r="AN18" s="13"/>
       <c r="AO18" s="13"/>
       <c r="AP18" s="13"/>
@@ -3226,8 +3228,8 @@
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="26"/>
-      <c r="AN21" s="31" t="str">
-        <f>B20&amp;"/"&amp;C21</f>
+      <c r="AN21" s="33" t="str">
+        <f>$B$20&amp;"/"&amp;$C21</f>
         <v>mail-template/account-recovery-template.txt</v>
       </c>
       <c r="AO21" s="20"/>
@@ -3304,8 +3306,8 @@
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
       <c r="AM22" s="26"/>
-      <c r="AN22" s="31" t="str">
-        <f>B20&amp;"/"&amp;C22</f>
+      <c r="AN22" s="33" t="str">
+        <f>$B$20&amp;"/"&amp;$C22</f>
         <v>mail-template/health-check-template.txt</v>
       </c>
       <c r="AO22" s="20"/>
@@ -3382,8 +3384,8 @@
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
       <c r="AM23" s="26"/>
-      <c r="AN23" s="31" t="str">
-        <f>B20&amp;"/"&amp;C23</f>
+      <c r="AN23" s="33" t="str">
+        <f>$B$20&amp;"/"&amp;$C23</f>
         <v>mail-template/healthinfo-regist-template.txt</v>
       </c>
       <c r="AO23" s="20"/>

--- a/ha-asset/01_design/93_S3設計書.xlsx
+++ b/ha-asset/01_design/93_S3設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88717621-CBD8-4AFC-A4FB-00A108B4006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA771262-4FB0-4B29-830C-E7F6EB358F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="840" windowWidth="24120" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>2.2.1.キー情報</t>
+    <t>2.1.2.キー情報</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -540,11 +540,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -559,6 +554,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,48 +864,48 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="41" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="43"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="44">
+      <c r="B4" s="41">
         <v>44150</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="42" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="35"/>
@@ -934,7 +934,7 @@
     </row>
     <row r="5" spans="1:27" ht="32.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="37">
+      <c r="B5" s="43">
         <v>44254</v>
       </c>
       <c r="C5" s="35"/>
@@ -947,7 +947,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="37" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="35"/>
@@ -970,7 +970,7 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="37">
+      <c r="B6" s="43">
         <v>44353</v>
       </c>
       <c r="C6" s="35"/>
@@ -986,22 +986,22 @@
       <c r="J6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
@@ -1615,6 +1615,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1624,66 +1684,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,7 +1698,9 @@
   </sheetPr>
   <dimension ref="A1:BQ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
@@ -2150,35 +2152,35 @@
       <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="47" t="str">
         <f t="shared" ref="H7:H8" si="0">"healthinfo-app-"&amp;C7</f>
         <v>healthinfo-app-local</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="39"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="45"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -2228,35 +2230,35 @@
       <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="47" t="str">
         <f t="shared" si="0"/>
         <v>healthinfo-app-ec2</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="39"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="45"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -2591,68 +2593,68 @@
       <c r="B13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
       <c r="V13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="39"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="45"/>
       <c r="AN13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="39"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="44"/>
+      <c r="BD13" s="44"/>
+      <c r="BE13" s="44"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="45"/>
       <c r="BI13" s="11"/>
       <c r="BJ13" s="11"/>
       <c r="BK13" s="11"/>

--- a/ha-asset/01_design/93_S3設計書.xlsx
+++ b/ha-asset/01_design/93_S3設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA771262-4FB0-4B29-830C-E7F6EB358F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A97196-9D02-4249-84AB-09E400E7E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="570" windowWidth="22335" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2.1.S3詳細設計'!$A$1:$BQ$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>更新日時</t>
   </si>
@@ -198,6 +208,10 @@
   </si>
   <si>
     <t>2.1.2.キー情報</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Slack接続情報キー</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -540,6 +554,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -554,11 +573,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,48 +878,48 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="38" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="41">
+      <c r="B4" s="44">
         <v>44150</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="45" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="35"/>
@@ -934,7 +948,7 @@
     </row>
     <row r="5" spans="1:27" ht="32.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="43">
+      <c r="B5" s="37">
         <v>44254</v>
       </c>
       <c r="C5" s="35"/>
@@ -947,7 +961,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="40" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="35"/>
@@ -970,7 +984,7 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="43">
+      <c r="B6" s="37">
         <v>44353</v>
       </c>
       <c r="C6" s="35"/>
@@ -986,22 +1000,22 @@
       <c r="J6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="45"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
@@ -1615,12 +1629,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1630,60 +1692,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:BQ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2152,35 +2166,35 @@
       <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="47" t="str">
         <f t="shared" ref="H7:H8" si="0">"healthinfo-app-"&amp;C7</f>
         <v>healthinfo-app-local</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="45"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="39"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -2230,35 +2244,35 @@
       <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="47" t="str">
         <f t="shared" si="0"/>
         <v>healthinfo-app-ec2</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="45"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="39"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -2593,68 +2607,68 @@
       <c r="B13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
       <c r="V13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="45"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="39"/>
       <c r="AN13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="45"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="38"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="39"/>
       <c r="BI13" s="11"/>
       <c r="BJ13" s="11"/>
       <c r="BK13" s="11"/>
@@ -4117,7 +4131,7 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="31" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>

--- a/ha-asset/01_design/93_S3設計書.xlsx
+++ b/ha-asset/01_design/93_S3設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D206669-06D9-4B0A-BFD9-7DC4F5DF4BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FBF7E-1C3E-4BD4-A065-180033D530E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="495" windowWidth="22725" windowHeight="14475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="480" windowWidth="24060" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2.1.S3詳細設計'!$A$1:$BQ$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>更新日時</t>
   </si>
@@ -532,6 +545,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -546,11 +564,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,7 +800,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:I13"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -858,48 +871,48 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="32" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="32" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="37"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="35">
+      <c r="B4" s="38">
         <v>44150</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="29"/>
@@ -928,20 +941,20 @@
     </row>
     <row r="5" spans="1:27" ht="32.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="37">
+      <c r="B5" s="31">
         <v>44254</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
       <c r="F5" s="28">
-        <f>F4+0.01</f>
+        <f>IF(B5="","",F4+0.01)</f>
         <v>1.01</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="34" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="29"/>
@@ -964,14 +977,14 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="37">
+      <c r="B6" s="31">
         <v>44353</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="28">
-        <f>F5+0.01</f>
+        <f t="shared" ref="F6:F25" si="0">IF(B6="","",F5+0.01)</f>
         <v>1.02</v>
       </c>
       <c r="G6" s="29"/>
@@ -980,34 +993,34 @@
       <c r="J6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="33"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="37">
+      <c r="B7" s="31">
         <v>45879</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
       <c r="F7" s="28">
-        <f>F6+0.01</f>
+        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
       <c r="G7" s="29"/>
@@ -1016,51 +1029,58 @@
       <c r="J7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="39"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="33"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="31">
+        <v>45971</v>
+      </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="30"/>
+      <c r="J8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="33"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
@@ -1069,7 +1089,10 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
@@ -1098,7 +1121,10 @@
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
@@ -1127,7 +1153,10 @@
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
@@ -1156,7 +1185,10 @@
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
@@ -1185,7 +1217,10 @@
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
@@ -1214,7 +1249,10 @@
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
@@ -1243,7 +1281,10 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
@@ -1272,7 +1313,10 @@
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
@@ -1301,7 +1345,10 @@
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
@@ -1330,7 +1377,10 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="30"/>
@@ -1359,7 +1409,10 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
@@ -1388,7 +1441,10 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="30"/>
@@ -1417,7 +1473,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="30"/>
@@ -1446,7 +1505,10 @@
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="30"/>
@@ -1475,7 +1537,10 @@
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
@@ -1504,7 +1569,10 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="30"/>
@@ -1533,7 +1601,10 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="30"/>
@@ -1616,12 +1687,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1631,60 +1750,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1699,8 +1770,8 @@
   </sheetPr>
   <dimension ref="A1:BQ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2153,35 +2224,35 @@
       <c r="C7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="41" t="str">
         <f t="shared" ref="H7:H8" si="0">"healthinfo-app-"&amp;C7</f>
         <v>healthinfo-app-local</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="39"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -2231,35 +2302,35 @@
       <c r="C8" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>healthinfo-app-dev1</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="39"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="33"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -2594,68 +2665,68 @@
       <c r="B13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="33"/>
       <c r="V13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="39"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="33"/>
       <c r="AN13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="39"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="33"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
       <c r="BK13" s="2"/>
